--- a/Excel/Склад и учет.xlsx
+++ b/Excel/Склад и учет.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC1\PycharmProjects\data_analyst_tasks\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Задача" sheetId="10" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="97">
   <si>
     <t>Поставщики</t>
   </si>
@@ -348,6 +348,12 @@
   </si>
   <si>
     <t>Планируем Таблицу</t>
+  </si>
+  <si>
+    <t>ООО "Круг"</t>
+  </si>
+  <si>
+    <t>15-106</t>
   </si>
 </sst>
 </file>
@@ -587,9 +593,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -597,6 +600,9 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -925,14 +931,14 @@
       <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -946,13 +952,13 @@
     </row>
     <row r="4" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="14"/>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1020,10 +1026,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
       <c r="C1" s="13"/>
       <c r="D1" s="12"/>
     </row>
@@ -1131,13 +1137,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,10 +1155,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="13"/>
       <c r="D1" s="12"/>
     </row>
@@ -1209,6 +1215,16 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1238,10 +1254,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="13"/>
       <c r="D1" s="12"/>
     </row>
@@ -1375,10 +1391,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="13"/>
       <c r="D1" s="12"/>
     </row>
@@ -1509,10 +1525,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="13"/>
       <c r="D1" s="12"/>
     </row>
@@ -1913,10 +1929,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="13"/>
       <c r="D1" s="12"/>
     </row>
@@ -2275,8 +2291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,7 +2414,7 @@
         <v>м3</v>
       </c>
       <c r="C6" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNA(VLOOKUP(A6,Таблица1,2,0)),"",VLOOKUP(A6,Таблица1,2,0))</f>
         <v>В</v>
       </c>
       <c r="D6" s="7" t="str">
